--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -66,16 +66,7 @@
     <t>Lập mô hình cấu trúc tầng dữ liệu (database)</t>
   </si>
   <si>
-    <t>Thiết kế mô hình tầng nghiệp vụ</t>
-  </si>
-  <si>
     <t>Thiết kế mô hình tầng giao diện</t>
-  </si>
-  <si>
-    <t>Tạo các Class thành phần</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạo các Form </t>
   </si>
   <si>
     <t>Phương pháp ADO.NET:</t>
@@ -100,6 +91,15 @@
   </si>
   <si>
     <t>Lập báo cáo và báo cáo</t>
+  </si>
+  <si>
+    <t>Thiết kế mô hình tầng nghiệp vụ , viết code</t>
+  </si>
+  <si>
+    <t>Tạo các Class thành phần và truyền dữ liệu</t>
+  </si>
+  <si>
+    <t>Tạo các Form , viết code</t>
   </si>
 </sst>
 </file>
@@ -207,12 +207,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +562,7 @@
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -576,15 +576,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -602,15 +602,15 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -704,10 +704,10 @@
       <c r="E5" s="7">
         <v>43718</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>43743</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>43743</v>
       </c>
       <c r="H5" s="8"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="6" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -739,8 +739,8 @@
       <c r="E6" s="7">
         <v>43721</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -770,8 +770,8 @@
       <c r="E7" s="7">
         <v>43723</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -841,7 +841,7 @@
     </row>
     <row r="10" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
@@ -875,16 +875,16 @@
     </row>
     <row r="11" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>43738</v>
       </c>
-      <c r="E11" s="18">
-        <v>43751</v>
+      <c r="E11" s="17">
+        <v>43744</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -906,13 +906,13 @@
     </row>
     <row r="12" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
@@ -933,16 +933,16 @@
     </row>
     <row r="13" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="18">
-        <v>43752</v>
+      <c r="D13" s="17">
+        <v>43744</v>
       </c>
-      <c r="E13" s="18">
-        <v>43764</v>
+      <c r="E13" s="17">
+        <v>43747</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -964,13 +964,13 @@
     </row>
     <row r="14" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -991,7 +991,7 @@
     </row>
     <row r="15" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="16" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="18">
-        <v>43765</v>
+      <c r="D16" s="17">
+        <v>43748</v>
       </c>
-      <c r="E16" s="18">
-        <v>43772</v>
+      <c r="E16" s="17">
+        <v>43753</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="17" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
@@ -1075,17 +1075,17 @@
     </row>
     <row r="18" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>43772</v>
+        <v>43754</v>
       </c>
       <c r="E18" s="7">
-        <v>43773</v>
+        <v>43757</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1107,17 +1107,17 @@
     </row>
     <row r="19" spans="1:22" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>43774</v>
+        <v>43758</v>
       </c>
       <c r="E19" s="7">
-        <v>43778</v>
+        <v>43763</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
